--- a/endpoints.xlsx
+++ b/endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Proyectos\GL\Trackfy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9D0B9-8FEC-464F-B6A2-190BBD84DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C3B99-2F9B-4F83-B631-6F2F28481EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="14400" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API Gateway (8080)" sheetId="1" r:id="rId1"/>
@@ -926,7 +926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1336,7 +1338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1792,7 +1796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2014,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
